--- a/项目/中餐厅设备点检/炒锅-/炒锅错误码.xlsx
+++ b/项目/中餐厅设备点检/炒锅-/炒锅错误码.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>错误码目前4个字节</t>
   </si>
@@ -41,7 +41,7 @@
     <t>bit1</t>
   </si>
   <si>
-    <t>搅拌电机超时</t>
+    <t>搅拌电机通信异常</t>
   </si>
   <si>
     <t>bit2</t>
@@ -101,10 +101,10 @@
     <t>回收料盒失败</t>
   </si>
   <si>
-    <t>加热模块超时</t>
-  </si>
-  <si>
-    <t>加热机芯板故障</t>
+    <t>机芯板通信异常</t>
+  </si>
+  <si>
+    <t>机芯板故障</t>
   </si>
   <si>
     <t>byte2</t>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>上位机急停</t>
+  </si>
+  <si>
+    <t>上菜口通信超时</t>
+  </si>
+  <si>
+    <t>上菜口取消做菜</t>
+  </si>
+  <si>
+    <t>做菜失败</t>
+  </si>
+  <si>
+    <t>加热功率异常</t>
   </si>
 </sst>
 </file>
@@ -152,11 +164,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,38 +192,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,9 +299,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,92 +308,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -333,25 +338,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,151 +476,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,6 +529,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -538,6 +576,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,67 +624,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,157 +634,154 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1143,8 +1145,8 @@
   <sheetPr/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1156,16 +1158,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
@@ -1176,7 +1178,7 @@
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:3">
-      <c r="A3" s="5"/>
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -1185,7 +1187,7 @@
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:3">
-      <c r="A4" s="5"/>
+      <c r="A4" s="4"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1194,7 +1196,7 @@
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:3">
-      <c r="A5" s="5"/>
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -1203,7 +1205,7 @@
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:3">
-      <c r="A6" s="5"/>
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -1212,7 +1214,7 @@
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:3">
-      <c r="A7" s="5"/>
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>14</v>
       </c>
@@ -1221,7 +1223,7 @@
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:3">
-      <c r="A8" s="5"/>
+      <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>16</v>
       </c>
@@ -1230,7 +1232,7 @@
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:3">
-      <c r="A9" s="5"/>
+      <c r="A9" s="4"/>
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -1239,7 +1241,7 @@
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B10" t="s">
@@ -1250,7 +1252,7 @@
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:3">
-      <c r="A11" s="5"/>
+      <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>6</v>
       </c>
@@ -1259,7 +1261,7 @@
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:3">
-      <c r="A12" s="5"/>
+      <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -1268,7 +1270,7 @@
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:3">
-      <c r="A13" s="5"/>
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1277,7 +1279,7 @@
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:3">
-      <c r="A14" s="5"/>
+      <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -1286,7 +1288,7 @@
       </c>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:3">
-      <c r="A15" s="5"/>
+      <c r="A15" s="4"/>
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -1295,7 +1297,7 @@
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:3">
-      <c r="A16" s="5"/>
+      <c r="A16" s="4"/>
       <c r="B16" t="s">
         <v>16</v>
       </c>
@@ -1304,7 +1306,7 @@
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:3">
-      <c r="A17" s="5"/>
+      <c r="A17" s="4"/>
       <c r="B17" t="s">
         <v>18</v>
       </c>
@@ -1313,7 +1315,7 @@
       </c>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B18" t="s">
@@ -1324,7 +1326,7 @@
       </c>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:3">
-      <c r="A19" s="5"/>
+      <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>6</v>
       </c>
@@ -1333,7 +1335,7 @@
       </c>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:3">
-      <c r="A20" s="5"/>
+      <c r="A20" s="4"/>
       <c r="B20" t="s">
         <v>8</v>
       </c>
@@ -1342,7 +1344,7 @@
       </c>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:3">
-      <c r="A21" s="5"/>
+      <c r="A21" s="4"/>
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -1351,7 +1353,7 @@
       </c>
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:3">
-      <c r="A22" s="5"/>
+      <c r="A22" s="4"/>
       <c r="B22" t="s">
         <v>12</v>
       </c>
@@ -1360,7 +1362,7 @@
       </c>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:3">
-      <c r="A23" s="5"/>
+      <c r="A23" s="4"/>
       <c r="B23" t="s">
         <v>14</v>
       </c>
@@ -1369,7 +1371,7 @@
       </c>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:3">
-      <c r="A24" s="5"/>
+      <c r="A24" s="4"/>
       <c r="B24" t="s">
         <v>16</v>
       </c>
@@ -1378,7 +1380,7 @@
       </c>
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:3">
-      <c r="A25" s="5"/>
+      <c r="A25" s="4"/>
       <c r="B25" t="s">
         <v>18</v>
       </c>
@@ -1387,7 +1389,7 @@
       </c>
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B26" t="s">
@@ -1398,7 +1400,7 @@
       </c>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:3">
-      <c r="A27" s="5"/>
+      <c r="A27" s="4"/>
       <c r="B27" t="s">
         <v>6</v>
       </c>
@@ -1407,7 +1409,7 @@
       </c>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:3">
-      <c r="A28" s="5"/>
+      <c r="A28" s="4"/>
       <c r="B28" t="s">
         <v>8</v>
       </c>
@@ -1415,32 +1417,44 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" ht="20" customHeight="1" spans="1:2">
-      <c r="A29" s="5"/>
+    <row r="29" ht="20" customHeight="1" spans="1:3">
+      <c r="A29" s="4"/>
       <c r="B29" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" ht="20" customHeight="1" spans="1:2">
-      <c r="A30" s="5"/>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" spans="1:3">
+      <c r="A30" s="4"/>
       <c r="B30" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" ht="20" customHeight="1" spans="1:2">
-      <c r="A31" s="5"/>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" spans="1:3">
+      <c r="A31" s="4"/>
       <c r="B31" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" ht="20" customHeight="1" spans="1:2">
-      <c r="A32" s="5"/>
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" spans="1:3">
+      <c r="A32" s="4"/>
       <c r="B32" t="s">
         <v>16</v>
       </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="33" ht="20" customHeight="1" spans="1:2">
-      <c r="A33" s="5"/>
+      <c r="A33" s="4"/>
       <c r="B33" t="s">
         <v>18</v>
       </c>
